--- a/lange/国际化.xlsx
+++ b/lange/国际化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12860"/>
+    <workbookView windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="JSON" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="202">
   <si>
     <t>key</t>
   </si>
@@ -41,7 +41,10 @@
     <t>contact-us</t>
   </si>
   <si>
-    <t>contact us</t>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>careers</t>
@@ -612,6 +615,24 @@
   </si>
   <si>
     <t>Advantages</t>
+  </si>
+  <si>
+    <t>service-scope</t>
+  </si>
+  <si>
+    <t>Service scope</t>
+  </si>
+  <si>
+    <t>complete-solutions-for-oil</t>
+  </si>
+  <si>
+    <t>Complete Solutions for Oil</t>
+  </si>
+  <si>
+    <t>and-gas-industry</t>
+  </si>
+  <si>
+    <t>Gas Industry</t>
   </si>
 </sst>
 </file>
@@ -1232,11 +1253,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1620,7 +1638,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1628,803 +1646,1127 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="38.2410714285714" customWidth="1"/>
-    <col min="2" max="2" width="66.3660714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.9553571428571" customWidth="1"/>
+    <col min="1" max="1" width="27.8303571428571" customWidth="1"/>
+    <col min="2" max="2" width="66.8125" customWidth="1"/>
+    <col min="3" max="3" width="46.8660714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="18" spans="1:2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="18" spans="1:2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="18" spans="1:2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" ht="18" spans="1:2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="18" spans="1:2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" ht="18" spans="1:2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" ht="18" spans="1:2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" ht="18" spans="1:2">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" ht="18" spans="1:2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" ht="18" spans="1:2">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" ht="18" spans="1:2">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" ht="18" spans="1:2">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" ht="18" spans="1:2">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" ht="18" spans="1:2">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" ht="18" spans="1:2">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" ht="18" spans="1:2">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" ht="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" ht="18" spans="1:2">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" ht="18" spans="1:2">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" ht="18" spans="1:2">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" ht="106" spans="1:2">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" ht="53" spans="1:2">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" ht="18" spans="1:2">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" ht="18" spans="1:2">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" ht="18" spans="1:2">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" ht="18" spans="1:2">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" ht="18" spans="1:2">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" ht="18" spans="1:2">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" ht="176" spans="1:2">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" ht="53" spans="1:2">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" ht="53" spans="1:2">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" ht="53" spans="1:2">
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" ht="53" spans="1:2">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" ht="53" spans="1:2">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" ht="71" spans="1:2">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" ht="36" spans="1:2">
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" ht="36" spans="1:2">
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" ht="36" spans="1:2">
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" ht="18" spans="1:2">
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" ht="18" spans="1:2">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" ht="18" spans="1:2">
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" ht="18" spans="1:2">
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" ht="18" spans="1:2">
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" ht="18" spans="1:2">
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" ht="18" spans="1:2">
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" ht="88" spans="1:2">
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" ht="18" spans="1:2">
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" ht="18" spans="1:2">
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" ht="18" spans="1:2">
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" ht="18" spans="1:2">
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" ht="18" spans="1:2">
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" ht="18" spans="1:2">
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" ht="88" spans="1:2">
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" ht="124" spans="1:2">
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" ht="53" spans="1:2">
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" ht="53" spans="1:2">
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" ht="36" spans="1:2">
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" ht="36" spans="1:2">
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" ht="18" spans="1:2">
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" ht="53" spans="1:2">
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" ht="53" spans="1:2">
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" ht="53" spans="1:2">
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" ht="36" spans="1:2">
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" ht="106" spans="1:2">
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" ht="88" spans="1:2">
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="68" ht="71" spans="1:2">
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="69" ht="36" spans="1:2">
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" ht="36" spans="1:2">
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" ht="71" spans="1:2">
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" ht="36" spans="1:2">
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" ht="106" spans="1:2">
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" ht="18" spans="1:2">
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" ht="18" spans="1:2">
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" ht="71" spans="1:2">
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" ht="18" spans="1:2">
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" ht="18" spans="1:2">
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" ht="18" spans="1:2">
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" ht="18" spans="1:2">
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" ht="18" spans="1:2">
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="82" ht="18" spans="1:2">
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83" ht="18" spans="1:2">
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="84" ht="36" spans="1:2">
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="85" ht="36" spans="1:2">
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" ht="36" spans="1:2">
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="87" ht="18" spans="1:2">
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="88" ht="36" spans="1:2">
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="89" ht="36" spans="1:2">
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="90" ht="36" spans="1:2">
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="91" ht="18" spans="1:2">
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="92" ht="18" spans="1:2">
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="93" ht="18" spans="1:2">
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="94" ht="18" spans="1:2">
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="95" ht="18" spans="1:2">
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="96" ht="18" spans="1:2">
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="97" ht="159" spans="1:2">
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="98" ht="18" spans="1:2">
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="1" t="s">
         <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1 A2:B98" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C101" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>